--- a/medicine/Pharmacie/Hongsam/Hongsam.xlsx
+++ b/medicine/Pharmacie/Hongsam/Hongsam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Hongsam (autrement, du ginseng rouge) (홍삼) est le ginseng (une plante originaire d'Asie du Nord-Est, dont la racine est réputée pour ses propriétés pharmaceutiques) fait cuit à la vapeur ou bien séché au soleil. Le Hongsam est souvent mariné en une décoction aux herbes qui fait que les racines deviennent très fragiles. Cette version de ginseng est censée augmenter les fonctions sexuelles et l'énergie de l'homme. Le Hongsam est toujours produit avec des racines de ginseng cultivé, qu'il soit d'origine sud-coréenne ou chinoise.
 En 2002, des recherches préliminaires sur les effets du Hongsam coréen sur l'impuissance a montré que le Hongsam peut être une bonne alternative pour soigner des dysfonctionnements érectiles de l'homme.
